--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itaegyeong/PycharmProjects/NaverAd/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2941102B-A540-7148-B1F8-B5463FF16F0E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>check</t>
   </si>
@@ -23,12 +28,6 @@
     <t>current_bid</t>
   </si>
   <si>
-    <t>current_rank</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
     <t>group_id</t>
   </si>
   <si>
@@ -62,18 +61,12 @@
     <t>pc_url</t>
   </si>
   <si>
-    <t>plus_minus_money</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
     <t>fail</t>
   </si>
   <si>
-    <t>www.modetour.com</t>
-  </si>
-  <si>
     <t>grp-a001-01-000000007300723</t>
   </si>
   <si>
@@ -99,28 +92,54 @@
   </si>
   <si>
     <t>모두투어여행사</t>
+  </si>
+  <si>
+    <t>plus_money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minus_money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc_current_rank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile_current_rank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,26 +154,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -442,20 +478,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,158 +505,162 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B2">
+        <v>340</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>910</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="n">
-        <v>340</v>
-      </c>
-      <c r="C2" t="n">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>700</v>
+      </c>
+      <c r="D3">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>910</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="n">
-        <v>6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>910</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3">
+        <v>50</v>
+      </c>
+      <c r="R3" t="s">
         <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="n">
-        <v>100</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="n">
-        <v>11</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="n">
-        <v>700</v>
-      </c>
-      <c r="C3" t="n">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>910</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="n">
-        <v>100</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="n">
-        <v>13</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -1,44 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itaegyeong/PycharmProjects/NaverAd/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2941102B-A540-7148-B1F8-B5463FF16F0E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>current_bid</t>
-  </si>
-  <si>
-    <t>group_id</t>
-  </si>
-  <si>
-    <t>group_name</t>
-  </si>
-  <si>
-    <t>hope_rank</t>
-  </si>
-  <si>
-    <t>keyword_count</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>keyword_id</t>
   </si>
@@ -46,100 +23,38 @@
     <t>keyword_name</t>
   </si>
   <si>
-    <t>max_bid</t>
-  </si>
-  <si>
-    <t>mobile_ad_count</t>
-  </si>
-  <si>
-    <t>mobile_url</t>
-  </si>
-  <si>
-    <t>pc_ad_count</t>
-  </si>
-  <si>
-    <t>pc_url</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>grp-a001-01-000000007300723</t>
-  </si>
-  <si>
-    <t>!!!!!!!0.모두투어모음</t>
-  </si>
-  <si>
     <t>nkw-a001-01-000001410531033</t>
   </si>
   <si>
     <t>모두투어패키지여행</t>
   </si>
   <si>
-    <t>http://m.modetourv.com</t>
-  </si>
-  <si>
-    <t>http://www.modetourv.com</t>
-  </si>
-  <si>
-    <t>ELIGIBLE</t>
-  </si>
-  <si>
     <t>nkw-a001-01-000001410531027</t>
   </si>
   <si>
     <t>모두투어여행사</t>
-  </si>
-  <si>
-    <t>plus_money</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>minus_money</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc_current_rank</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile_current_rank</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -154,43 +69,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -478,189 +376,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
-    <col min="17" max="17" width="18" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>340</v>
-      </c>
-      <c r="D2">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>910</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2">
-        <v>11</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2">
-        <v>10</v>
-      </c>
-      <c r="Q2">
-        <v>10</v>
-      </c>
-      <c r="R2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>700</v>
-      </c>
-      <c r="D3">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>910</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3">
-        <v>13</v>
-      </c>
-      <c r="O3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3">
-        <v>20</v>
-      </c>
-      <c r="Q3">
-        <v>50</v>
-      </c>
-      <c r="R3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>